--- a/Rockets since march 7 data scrapping/alerts_all_towns_oct_7_oct_11.xlsx
+++ b/Rockets since march 7 data scrapping/alerts_all_towns_oct_7_oct_11.xlsx
@@ -1409,10 +1409,14 @@
   <dimension ref="A1:C2001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1165" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A1165" activeCellId="0" sqref="A1165"/>
+      <selection pane="bottomRight" activeCell="G1181" activeCellId="0" sqref="G1181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.35"/>
